--- a/chats/573053387716@c.us.xlsx
+++ b/chats/573053387716@c.us.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="184">
   <si>
     <t>Fecha</t>
   </si>
@@ -569,6 +569,9 @@
   </si>
   <si>
     <t>14-07-2022 08:32</t>
+  </si>
+  <si>
+    <t>14-07-2022 09:07</t>
   </si>
 </sst>
 </file>
@@ -945,7 +948,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C128"/>
+  <dimension ref="A1:C129"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1958,11 +1961,19 @@
         <v>173</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>182</v>
       </c>
       <c r="B128" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>183</v>
+      </c>
+      <c r="B129" t="s">
         <v>173</v>
       </c>
     </row>
